--- a/Features to add.xlsx
+++ b/Features to add.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ab7y02\OneDrive - American National Insurance Company\Documents\Code Projects\C#\CSuiteView\CSuiteView\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anico-my.sharepoint.com/personal/ab7y02_dnanico1_aniconet_com/Documents/Documents/Code Projects/C#/CSuiteView/CSuiteView/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF8693B-47DC-4430-9559-FF6091CBD4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{1CF8693B-47DC-4430-9559-FF6091CBD4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3D8F9D3-045D-4482-8674-FA3DC85B81DE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CF1343FB-A9C9-4CCE-8FF6-D066FE804AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$2</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>Phs</t>
   </si>
@@ -216,17 +217,41 @@
     <t>Run the query and display results</t>
   </si>
   <si>
-    <t xml:space="preserve">At the top of the form for the query should be a button called "Run".  When this button is clicked the SQL string should be build accordign to whats in the Criteria, Display and Tables tab.  The sql string then be formated and printed to the SQL tab.  The results of the query should be put into the Results sheet.  </t>
-  </si>
-  <si>
     <t>This is important, the results could be quite large, like 1,000,000 rows or more is possible.  Check the size of the output to determine how to display the results.  If the results are quite large you may need to use code that will be much more permant in viewing the data.  If the results are smaller, like 20,000, we can use a display method that isnt as complicated.</t>
+  </si>
+  <si>
+    <t>Click on Company_Data to add a data source</t>
+  </si>
+  <si>
+    <t>When you click on company data, the middel workspace should show a input box with a label that says Name your Company_Data.   Another input box with a label below it that says ODBC datasource name.  And a button that says Add</t>
+  </si>
+  <si>
+    <t>When you click on the button, the name is added as a child under Company_Data. And the Data Source is queried to show all the tables just like we have for UL_Rates</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>I no longer want to click on the tree node of "Company_Data" to add new data sources.  Instead next to Data Sources label I want a small brass button that says "Add", and have it wired to the same page of inputs that used to be for Company_Data click</t>
+  </si>
+  <si>
+    <t>And do the same for My Queries - add a small brass button that "Add" and use that for the add functionality</t>
+  </si>
+  <si>
+    <t>I want the Edit ability disabled by default. then add an "Edit" button that is in that secondary light blue color, add it under the Data Sources list box.  When this button is clicked I wanto enable the delete functionality.  Also when that button is click I want in big red letters in the bottom middle "EDIT MODE ON.  OBEJCTS CAN BE DELETED".  And i want the edit button to now say Disable in red text.  When th eDisable button i click, the red text goes away, you cannot right click to delete objects and the button goes back to saying Edit and the color goes back as well.</t>
+  </si>
+  <si>
+    <t>When clickign on a data source like Life_Prod, I want the add button to be above the table data in the middle. Move the table down a bit and add the button and make is be brass colored.  See image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When i select a query, at the top of the form for the query should be a button called "Run".  When this button is clicked the SQL string should be built accordin gto whats in the Criteria, Display and Tables tab.  The sql string then be formated and printed to the SQL tab.  The results of the query should be put into the Results sheet.  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,13 +273,25 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -358,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -388,6 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,6 +441,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -722,6 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E55E30-E45C-40CC-A26B-2630D6710CCF}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -983,7 +1026,8 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F658BC-4370-4E5F-B120-93FCBC02230D}">
-  <dimension ref="C2:D38"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B2:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
@@ -991,64 +1035,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>62</v>
+      </c>
       <c r="C2" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" s="17"/>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C9" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C13" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C14" s="16" t="s">
         <v>42</v>
       </c>
@@ -1056,7 +1104,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C15" s="16" t="s">
         <v>44</v>
       </c>
@@ -1064,86 +1112,164 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="s">
+        <v>62</v>
+      </c>
       <c r="C23" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C27" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C28" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C29" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C30" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C33" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C34" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C36" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C37" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="16" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="16" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="16"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D284D5-C108-42B3-8031-02B39DE8D157}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Features to add.xlsx
+++ b/Features to add.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anico-my.sharepoint.com/personal/ab7y02_dnanico1_aniconet_com/Documents/Documents/Code Projects/C#/CSuiteView/CSuiteView/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{1CF8693B-47DC-4430-9559-FF6091CBD4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3D8F9D3-045D-4482-8674-FA3DC85B81DE}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{1CF8693B-47DC-4430-9559-FF6091CBD4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C4FD4DC-D2F5-4EF7-8CF2-6C1CAC584130}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CF1343FB-A9C9-4CCE-8FF6-D066FE804AF7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF1343FB-A9C9-4CCE-8FF6-D066FE804AF7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Form layout" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$O$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <t>Phs</t>
   </si>
@@ -245,13 +246,37 @@
   </si>
   <si>
     <t xml:space="preserve">When i select a query, at the top of the form for the query should be a button called "Run".  When this button is clicked the SQL string should be built accordin gto whats in the Criteria, Display and Tables tab.  The sql string then be formated and printed to the SQL tab.  The results of the query should be put into the Results sheet.  </t>
+  </si>
+  <si>
+    <t>right panel</t>
+  </si>
+  <si>
+    <t>middle panel</t>
+  </si>
+  <si>
+    <t>left panel</t>
+  </si>
+  <si>
+    <t>Form Container</t>
+  </si>
+  <si>
+    <t>Interior panel</t>
+  </si>
+  <si>
+    <t>3 - Panel splitter, no header or footer</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>3 Panel inside Interior panel inside Form Container</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,8 +304,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,8 +325,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2C5AA0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3A71C5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF60A0FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -391,11 +447,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFFD700"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFD700"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFD700"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFD700"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFD700"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFD700"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFD700"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFD700"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFFD700"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFD700"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFFD700"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFD700"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFD700"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFFD700"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFD700"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFD700"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFFD700"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFD700"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -426,6 +585,31 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,6 +947,1732 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0741CE-3475-411D-B037-E80FF93CA79E}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:AV42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.21875" style="20" customWidth="1"/>
+    <col min="2" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="0.77734375" customWidth="1"/>
+    <col min="6" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="1" customWidth="1"/>
+    <col min="11" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" style="20" customWidth="1"/>
+    <col min="15" max="15" width="4.44140625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="2.44140625" style="20" customWidth="1"/>
+    <col min="17" max="17" width="1.21875" customWidth="1"/>
+    <col min="18" max="20" width="6" customWidth="1"/>
+    <col min="21" max="21" width="0.77734375" customWidth="1"/>
+    <col min="22" max="25" width="6" customWidth="1"/>
+    <col min="26" max="26" width="1" customWidth="1"/>
+    <col min="27" max="29" width="6" customWidth="1"/>
+    <col min="30" max="30" width="1.109375" customWidth="1"/>
+    <col min="31" max="31" width="3.21875" style="20" customWidth="1"/>
+    <col min="32" max="32" width="8.88671875" style="20"/>
+    <col min="33" max="33" width="3.21875" style="20" customWidth="1"/>
+    <col min="34" max="34" width="1.21875" customWidth="1"/>
+    <col min="35" max="37" width="6" customWidth="1"/>
+    <col min="38" max="38" width="0.77734375" customWidth="1"/>
+    <col min="39" max="42" width="6" customWidth="1"/>
+    <col min="43" max="43" width="1" customWidth="1"/>
+    <col min="44" max="46" width="6" customWidth="1"/>
+    <col min="47" max="47" width="1.109375" customWidth="1"/>
+    <col min="48" max="48" width="8.88671875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:47" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+    </row>
+    <row r="3" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="41"/>
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="41"/>
+      <c r="AS3" s="41"/>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+    </row>
+    <row r="4" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B4" s="37"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="35"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+    </row>
+    <row r="5" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B5" s="33"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="31"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+    </row>
+    <row r="6" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="31"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="41"/>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="41"/>
+      <c r="AU6" s="41"/>
+    </row>
+    <row r="7" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B7" s="33"/>
+      <c r="C7" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="31"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="41"/>
+      <c r="AR7" s="41"/>
+      <c r="AS7" s="41"/>
+      <c r="AT7" s="41"/>
+      <c r="AU7" s="41"/>
+    </row>
+    <row r="8" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="31"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="41"/>
+      <c r="AK8" s="41"/>
+      <c r="AL8" s="41"/>
+      <c r="AM8" s="41"/>
+      <c r="AN8" s="41"/>
+      <c r="AO8" s="41"/>
+      <c r="AP8" s="41"/>
+      <c r="AQ8" s="41"/>
+      <c r="AR8" s="41"/>
+      <c r="AS8" s="41"/>
+      <c r="AT8" s="41"/>
+      <c r="AU8" s="41"/>
+    </row>
+    <row r="9" spans="2:47" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="33"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="31"/>
+      <c r="O9" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AF9" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="41"/>
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="41"/>
+      <c r="AN9" s="41"/>
+      <c r="AO9" s="41"/>
+      <c r="AP9" s="41"/>
+      <c r="AQ9" s="41"/>
+      <c r="AR9" s="41"/>
+      <c r="AS9" s="41"/>
+      <c r="AT9" s="41"/>
+      <c r="AU9" s="41"/>
+    </row>
+    <row r="10" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B10" s="33"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="31"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="41"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="41"/>
+      <c r="AQ10" s="41"/>
+      <c r="AR10" s="41"/>
+      <c r="AS10" s="41"/>
+      <c r="AT10" s="41"/>
+      <c r="AU10" s="41"/>
+    </row>
+    <row r="11" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B11" s="33"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="31"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="41"/>
+      <c r="AL11" s="41"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="41"/>
+      <c r="AO11" s="41"/>
+      <c r="AP11" s="41"/>
+      <c r="AQ11" s="41"/>
+      <c r="AR11" s="41"/>
+      <c r="AS11" s="41"/>
+      <c r="AT11" s="41"/>
+      <c r="AU11" s="41"/>
+    </row>
+    <row r="12" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B12" s="33"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="31"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="41"/>
+      <c r="AK12" s="41"/>
+      <c r="AL12" s="41"/>
+      <c r="AM12" s="41"/>
+      <c r="AN12" s="41"/>
+      <c r="AO12" s="41"/>
+      <c r="AP12" s="41"/>
+      <c r="AQ12" s="41"/>
+      <c r="AR12" s="41"/>
+      <c r="AS12" s="41"/>
+      <c r="AT12" s="41"/>
+      <c r="AU12" s="41"/>
+    </row>
+    <row r="13" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B13" s="33"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="31"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="41"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="41"/>
+      <c r="AO13" s="41"/>
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="41"/>
+      <c r="AR13" s="41"/>
+      <c r="AS13" s="41"/>
+      <c r="AT13" s="41"/>
+      <c r="AU13" s="41"/>
+    </row>
+    <row r="14" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B14" s="30"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="27"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="41"/>
+      <c r="AK14" s="41"/>
+      <c r="AL14" s="41"/>
+      <c r="AM14" s="41"/>
+      <c r="AN14" s="41"/>
+      <c r="AO14" s="41"/>
+      <c r="AP14" s="41"/>
+      <c r="AQ14" s="41"/>
+      <c r="AR14" s="41"/>
+      <c r="AS14" s="41"/>
+      <c r="AT14" s="41"/>
+      <c r="AU14" s="41"/>
+    </row>
+    <row r="15" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
+      <c r="AK15" s="41"/>
+      <c r="AL15" s="41"/>
+      <c r="AM15" s="41"/>
+      <c r="AN15" s="41"/>
+      <c r="AO15" s="41"/>
+      <c r="AP15" s="41"/>
+      <c r="AQ15" s="41"/>
+      <c r="AR15" s="41"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="41"/>
+      <c r="AU15" s="41"/>
+    </row>
+    <row r="16" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="41"/>
+      <c r="AL16" s="41"/>
+      <c r="AM16" s="41"/>
+      <c r="AN16" s="41"/>
+      <c r="AO16" s="41"/>
+      <c r="AP16" s="41"/>
+      <c r="AQ16" s="41"/>
+      <c r="AR16" s="41"/>
+      <c r="AS16" s="41"/>
+      <c r="AT16" s="41"/>
+      <c r="AU16" s="41"/>
+    </row>
+    <row r="17" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="Q17" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="20"/>
+      <c r="AO17" s="20"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="20"/>
+      <c r="AR17" s="20"/>
+      <c r="AS17" s="20"/>
+      <c r="AT17" s="20"/>
+      <c r="AU17" s="20"/>
+    </row>
+    <row r="18" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AH18" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="20"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="20"/>
+      <c r="AQ18" s="20"/>
+      <c r="AR18" s="20"/>
+      <c r="AS18" s="20"/>
+      <c r="AT18" s="20"/>
+      <c r="AU18" s="20"/>
+    </row>
+    <row r="19" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="20"/>
+      <c r="AO19" s="20"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="20"/>
+      <c r="AR19" s="20"/>
+      <c r="AS19" s="20"/>
+      <c r="AT19" s="20"/>
+      <c r="AU19" s="20"/>
+    </row>
+    <row r="20" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="20"/>
+      <c r="AT20" s="20"/>
+      <c r="AU20" s="20"/>
+    </row>
+    <row r="21" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="20"/>
+      <c r="AO21" s="20"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="20"/>
+      <c r="AR21" s="20"/>
+      <c r="AS21" s="20"/>
+      <c r="AT21" s="20"/>
+      <c r="AU21" s="20"/>
+    </row>
+    <row r="22" spans="2:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="20"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="20"/>
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="20"/>
+      <c r="AU22" s="20"/>
+    </row>
+    <row r="23" spans="2:47" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="38"/>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="20"/>
+      <c r="AL23" s="20"/>
+      <c r="AM23" s="20"/>
+      <c r="AN23" s="20"/>
+      <c r="AO23" s="20"/>
+      <c r="AP23" s="20"/>
+      <c r="AQ23" s="20"/>
+      <c r="AR23" s="20"/>
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="20"/>
+      <c r="AU23" s="20"/>
+    </row>
+    <row r="24" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="24"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="20"/>
+      <c r="AR24" s="20"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="20"/>
+      <c r="AU24" s="20"/>
+    </row>
+    <row r="25" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="24"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="20"/>
+      <c r="AS25" s="20"/>
+      <c r="AT25" s="20"/>
+      <c r="AU25" s="20"/>
+    </row>
+    <row r="26" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="24"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="20"/>
+      <c r="AN26" s="20"/>
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="20"/>
+      <c r="AQ26" s="20"/>
+      <c r="AR26" s="20"/>
+      <c r="AS26" s="20"/>
+      <c r="AT26" s="20"/>
+      <c r="AU26" s="20"/>
+    </row>
+    <row r="27" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="24"/>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="20"/>
+      <c r="AK27" s="20"/>
+      <c r="AL27" s="20"/>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="20"/>
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="20"/>
+      <c r="AQ27" s="20"/>
+      <c r="AR27" s="20"/>
+      <c r="AS27" s="20"/>
+      <c r="AT27" s="20"/>
+      <c r="AU27" s="20"/>
+    </row>
+    <row r="28" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="T28" s="32"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="24"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="20"/>
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="20"/>
+      <c r="AS28" s="20"/>
+      <c r="AT28" s="20"/>
+      <c r="AU28" s="20"/>
+    </row>
+    <row r="29" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="24"/>
+      <c r="AH29" s="20"/>
+      <c r="AI29" s="20"/>
+      <c r="AJ29" s="20"/>
+      <c r="AK29" s="20"/>
+      <c r="AL29" s="20"/>
+      <c r="AM29" s="20"/>
+      <c r="AN29" s="20"/>
+      <c r="AO29" s="20"/>
+      <c r="AP29" s="20"/>
+      <c r="AQ29" s="20"/>
+      <c r="AR29" s="20"/>
+      <c r="AS29" s="20"/>
+      <c r="AT29" s="20"/>
+      <c r="AU29" s="20"/>
+    </row>
+    <row r="30" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="24"/>
+      <c r="AH30" s="20"/>
+      <c r="AI30" s="20"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="20"/>
+      <c r="AM30" s="20"/>
+      <c r="AN30" s="20"/>
+      <c r="AO30" s="20"/>
+      <c r="AP30" s="20"/>
+      <c r="AQ30" s="20"/>
+      <c r="AR30" s="20"/>
+      <c r="AS30" s="20"/>
+      <c r="AT30" s="20"/>
+      <c r="AU30" s="20"/>
+    </row>
+    <row r="31" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="32"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="24"/>
+      <c r="AH31" s="20"/>
+      <c r="AI31" s="20"/>
+      <c r="AJ31" s="20"/>
+      <c r="AK31" s="20"/>
+      <c r="AL31" s="20"/>
+      <c r="AM31" s="20"/>
+      <c r="AN31" s="20"/>
+      <c r="AO31" s="20"/>
+      <c r="AP31" s="20"/>
+      <c r="AQ31" s="20"/>
+      <c r="AR31" s="20"/>
+      <c r="AS31" s="20"/>
+      <c r="AT31" s="20"/>
+      <c r="AU31" s="20"/>
+    </row>
+    <row r="32" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="32"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="24"/>
+      <c r="AH32" s="20"/>
+      <c r="AI32" s="20"/>
+      <c r="AJ32" s="20"/>
+      <c r="AK32" s="20"/>
+      <c r="AL32" s="20"/>
+      <c r="AM32" s="20"/>
+      <c r="AN32" s="20"/>
+      <c r="AO32" s="20"/>
+      <c r="AP32" s="20"/>
+      <c r="AQ32" s="20"/>
+      <c r="AR32" s="20"/>
+      <c r="AS32" s="20"/>
+      <c r="AT32" s="20"/>
+      <c r="AU32" s="20"/>
+    </row>
+    <row r="33" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="24"/>
+      <c r="AH33" s="20"/>
+      <c r="AI33" s="20"/>
+      <c r="AJ33" s="20"/>
+      <c r="AK33" s="20"/>
+      <c r="AL33" s="20"/>
+      <c r="AM33" s="20"/>
+      <c r="AN33" s="20"/>
+      <c r="AO33" s="20"/>
+      <c r="AP33" s="20"/>
+      <c r="AQ33" s="20"/>
+      <c r="AR33" s="20"/>
+      <c r="AS33" s="20"/>
+      <c r="AT33" s="20"/>
+      <c r="AU33" s="20"/>
+    </row>
+    <row r="34" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="24"/>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="20"/>
+      <c r="AJ34" s="20"/>
+      <c r="AK34" s="20"/>
+      <c r="AL34" s="20"/>
+      <c r="AM34" s="20"/>
+      <c r="AN34" s="20"/>
+      <c r="AO34" s="20"/>
+      <c r="AP34" s="20"/>
+      <c r="AQ34" s="20"/>
+      <c r="AR34" s="20"/>
+      <c r="AS34" s="20"/>
+      <c r="AT34" s="20"/>
+      <c r="AU34" s="20"/>
+    </row>
+    <row r="35" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="24"/>
+      <c r="AH35" s="20"/>
+      <c r="AI35" s="20"/>
+      <c r="AJ35" s="20"/>
+      <c r="AK35" s="20"/>
+      <c r="AL35" s="20"/>
+      <c r="AM35" s="20"/>
+      <c r="AN35" s="20"/>
+      <c r="AO35" s="20"/>
+      <c r="AP35" s="20"/>
+      <c r="AQ35" s="20"/>
+      <c r="AR35" s="20"/>
+      <c r="AS35" s="20"/>
+      <c r="AT35" s="20"/>
+      <c r="AU35" s="20"/>
+    </row>
+    <row r="36" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="24"/>
+      <c r="AH36" s="20"/>
+      <c r="AI36" s="20"/>
+      <c r="AJ36" s="20"/>
+      <c r="AK36" s="20"/>
+      <c r="AL36" s="20"/>
+      <c r="AM36" s="20"/>
+      <c r="AN36" s="20"/>
+      <c r="AO36" s="20"/>
+      <c r="AP36" s="20"/>
+      <c r="AQ36" s="20"/>
+      <c r="AR36" s="20"/>
+      <c r="AS36" s="20"/>
+      <c r="AT36" s="20"/>
+      <c r="AU36" s="20"/>
+    </row>
+    <row r="37" spans="2:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="21"/>
+      <c r="AH37" s="20"/>
+      <c r="AI37" s="20"/>
+      <c r="AJ37" s="20"/>
+      <c r="AK37" s="20"/>
+      <c r="AL37" s="20"/>
+      <c r="AM37" s="20"/>
+      <c r="AN37" s="20"/>
+      <c r="AO37" s="20"/>
+      <c r="AP37" s="20"/>
+      <c r="AQ37" s="20"/>
+      <c r="AR37" s="20"/>
+      <c r="AS37" s="20"/>
+      <c r="AT37" s="20"/>
+      <c r="AU37" s="20"/>
+    </row>
+    <row r="38" spans="2:47" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AH38" s="20"/>
+      <c r="AI38" s="20"/>
+      <c r="AJ38" s="20"/>
+      <c r="AK38" s="20"/>
+      <c r="AL38" s="20"/>
+      <c r="AM38" s="20"/>
+      <c r="AN38" s="20"/>
+      <c r="AO38" s="20"/>
+      <c r="AP38" s="20"/>
+      <c r="AQ38" s="20"/>
+      <c r="AR38" s="20"/>
+      <c r="AS38" s="20"/>
+      <c r="AT38" s="20"/>
+      <c r="AU38" s="20"/>
+    </row>
+    <row r="39" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+    </row>
+    <row r="40" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+    </row>
+    <row r="41" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+    </row>
+    <row r="42" spans="2:47" x14ac:dyDescent="0.3">
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E55E30-E45C-40CC-A26B-2630D6710CCF}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O25"/>
@@ -771,26 +2681,26 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -837,7 +2747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -884,7 +2794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -901,7 +2811,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -918,7 +2828,7 @@
       <c r="N4" s="6"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -935,12 +2845,12 @@
       <c r="N5" s="11"/>
       <c r="O5" s="12"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -948,7 +2858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -956,7 +2866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -964,12 +2874,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -977,7 +2887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -985,12 +2895,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -998,22 +2908,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>38</v>
       </c>
@@ -1024,22 +2934,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F658BC-4370-4E5F-B120-93FCBC02230D}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>62</v>
       </c>
@@ -1047,56 +2957,56 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C3" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C6" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C7" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.35">
       <c r="C8" s="17"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C9" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.35">
       <c r="C10" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.35">
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.35">
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C13" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C14" s="16" t="s">
         <v>42</v>
       </c>
@@ -1104,7 +3014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C15" s="16" t="s">
         <v>44</v>
       </c>
@@ -1112,20 +3022,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C17" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="15" x14ac:dyDescent="0.35">
       <c r="C18" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
         <v>62</v>
       </c>
@@ -1133,68 +3043,68 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C24" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C26" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C27" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C28" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C29" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C30" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C33" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C34" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C36" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C37" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C38" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="19" t="s">
         <v>62</v>
       </c>
@@ -1202,30 +3112,30 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C43" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C44" s="16"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C45" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C46" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C47" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="19" t="s">
         <v>62</v>
       </c>
@@ -1233,12 +3143,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="19" t="s">
         <v>62</v>
       </c>
@@ -1246,7 +3156,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="19" t="s">
         <v>62</v>
       </c>
@@ -1259,7 +3169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D284D5-C108-42B3-8031-02B39DE8D157}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
@@ -1268,7 +3178,7 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
